--- a/admin/report/统计分析-人月统计.xlsx
+++ b/admin/report/统计分析-人月统计.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="统计分析-人月统计"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C3" t="str">
-        <v>刘庆</v>
+        <v>刘声尧</v>
       </c>
       <c r="D3">
-        <v>307.5</v>
+        <v>138</v>
       </c>
       <c r="E3" t="str">
         <v>产品</v>
@@ -416,13 +416,13 @@
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C4" t="str">
-        <v>刘智</v>
+        <v>刘庆</v>
       </c>
       <c r="D4">
-        <v>136</v>
+        <v>255.20000000000002</v>
       </c>
       <c r="E4" t="str">
         <v>产品</v>
@@ -430,13 +430,13 @@
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C5" t="str">
-        <v>崔荣杰</v>
+        <v>孔德成</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="E5" t="str">
         <v>产品</v>
@@ -444,13 +444,13 @@
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C6" t="str">
-        <v>曹琦敏</v>
+        <v>宋武英</v>
       </c>
       <c r="D6">
-        <v>21.5</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="str">
         <v>产品</v>
@@ -458,13 +458,13 @@
     </row>
     <row r="7">
       <c r="B7" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C7" t="str">
-        <v>李凤勇</v>
+        <v>张少敬</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" t="str">
         <v>产品</v>
@@ -472,13 +472,13 @@
     </row>
     <row r="8">
       <c r="B8" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C8" t="str">
-        <v>李彦辉</v>
+        <v>张树刚</v>
       </c>
       <c r="D8">
-        <v>41.5</v>
+        <v>26.5</v>
       </c>
       <c r="E8" t="str">
         <v>产品</v>
@@ -486,13 +486,13 @@
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C9" t="str">
-        <v>杨荔</v>
+        <v>曹琦敏</v>
       </c>
       <c r="D9">
-        <v>358.6</v>
+        <v>44.49999999999999</v>
       </c>
       <c r="E9" t="str">
         <v>产品</v>
@@ -500,13 +500,13 @@
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C10" t="str">
-        <v>王寅</v>
+        <v>李凤勇</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>443.99999999999994</v>
       </c>
       <c r="E10" t="str">
         <v>产品</v>
@@ -514,13 +514,13 @@
     </row>
     <row r="11">
       <c r="B11" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C11" t="str">
-        <v>王岳龙</v>
+        <v>李彦辉</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="E11" t="str">
         <v>产品</v>
@@ -528,13 +528,13 @@
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C12" t="str">
-        <v>王志伟</v>
+        <v>李永亮</v>
       </c>
       <c r="D12">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="E12" t="str">
         <v>产品</v>
@@ -542,13 +542,13 @@
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C13" t="str">
-        <v>王欢</v>
+        <v>李荣鹏</v>
       </c>
       <c r="D13">
-        <v>632.5</v>
+        <v>124</v>
       </c>
       <c r="E13" t="str">
         <v>产品</v>
@@ -556,13 +556,13 @@
     </row>
     <row r="14">
       <c r="B14" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C14" t="str">
-        <v>王正超</v>
+        <v>杨荔</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>146.39999999999998</v>
       </c>
       <c r="E14" t="str">
         <v>产品</v>
@@ -570,13 +570,13 @@
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C15" t="str">
-        <v>罗慧</v>
+        <v>王亚斌</v>
       </c>
       <c r="D15">
-        <v>1.5</v>
+        <v>107.5</v>
       </c>
       <c r="E15" t="str">
         <v>产品</v>
@@ -584,13 +584,13 @@
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C16" t="str">
-        <v>蔡世贤</v>
+        <v>王岳龙</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E16" t="str">
         <v>产品</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="17">
       <c r="B17" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C17" t="str">
-        <v>蔡红保</v>
+        <v>王欢</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>631.5</v>
       </c>
       <c r="E17" t="str">
         <v>产品</v>
@@ -612,13 +612,13 @@
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C18" t="str">
-        <v>赵世伟</v>
+        <v>王海明</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E18" t="str">
         <v>产品</v>
@@ -626,13 +626,13 @@
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C19" t="str">
-        <v>赵志远</v>
+        <v>蔡世贤</v>
       </c>
       <c r="D19">
-        <v>226</v>
+        <v>692</v>
       </c>
       <c r="E19" t="str">
         <v>产品</v>
@@ -640,13 +640,13 @@
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C20" t="str">
-        <v>雷鹏程</v>
+        <v>蔡红保</v>
       </c>
       <c r="D20">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="E20" t="str">
         <v>产品</v>
@@ -654,15 +654,71 @@
     </row>
     <row r="21">
       <c r="B21" t="str">
-        <v>SCW-A-YF-1608-01云图引擎</v>
+        <v>SCW-B-YF-1412-01在线查验系统</v>
       </c>
       <c r="C21" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D21">
+        <v>300.5</v>
+      </c>
+      <c r="E21" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C22" t="str">
+        <v>陈珂</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C23" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D23">
+        <v>31.5</v>
+      </c>
+      <c r="E23" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C24" t="str">
+        <v>霍源丽</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C25" t="str">
         <v>魏东</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="str">
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="str">
         <v>产品</v>
       </c>
     </row>

--- a/admin/report/统计分析-人月统计.xlsx
+++ b/admin/report/统计分析-人月统计.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="统计分析-人月统计"/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>皮带机拆装(泰州)</v>
       </c>
       <c r="C3" t="str">
-        <v>刘声尧</v>
+        <v>温振兴</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E3" t="str">
         <v>产品</v>
@@ -416,111 +416,111 @@
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1612-02重庆巴南保税物流中心在线查验系统</v>
       </c>
       <c r="C4" t="str">
-        <v>刘庆</v>
+        <v>周佳佳</v>
       </c>
       <c r="D4">
-        <v>255.20000000000002</v>
+        <v>2</v>
       </c>
       <c r="E4" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1612-02重庆巴南保税物流中心在线查验系统</v>
       </c>
       <c r="C5" t="str">
-        <v>孔德成</v>
+        <v>张赢利</v>
       </c>
       <c r="D5">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="E5" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-QE-XM-1612-01包头机场卫检自助查验通道</v>
       </c>
       <c r="C6" t="str">
         <v>宋武英</v>
       </c>
       <c r="D6">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-QE-XM-1612-01包头机场卫检自助查验通道</v>
       </c>
       <c r="C7" t="str">
-        <v>张少敬</v>
+        <v>王亚斌</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-QE-XM-1612-01包头机场卫检自助查验通道</v>
       </c>
       <c r="C8" t="str">
-        <v>张树刚</v>
+        <v>王琛</v>
       </c>
       <c r="D8">
-        <v>26.5</v>
+        <v>24</v>
       </c>
       <c r="E8" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-QE-XM-1612-01包头机场卫检自助查验通道</v>
       </c>
       <c r="C9" t="str">
-        <v>曹琦敏</v>
+        <v>王铎</v>
       </c>
       <c r="D9">
-        <v>44.49999999999999</v>
+        <v>6</v>
       </c>
       <c r="E9" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-QE-XM-1612-01包头机场卫检自助查验通道</v>
       </c>
       <c r="C10" t="str">
-        <v>李凤勇</v>
+        <v>魏东</v>
       </c>
       <c r="D10">
-        <v>443.99999999999994</v>
+        <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-Y-YF-1612-01验讫章柜</v>
       </c>
       <c r="C11" t="str">
-        <v>李彦辉</v>
+        <v>李永亮</v>
       </c>
       <c r="D11">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E11" t="str">
         <v>产品</v>
@@ -528,41 +528,41 @@
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1612-01海南美兰机场跨境电商在线查验系统</v>
       </c>
       <c r="C12" t="str">
         <v>李永亮</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E12" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1612-01海南美兰机场跨境电商在线查验系统</v>
       </c>
       <c r="C13" t="str">
-        <v>李荣鹏</v>
+        <v>霍俊</v>
       </c>
       <c r="D13">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E13" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-L-YF-1612-01立式核生化系统</v>
       </c>
       <c r="C14" t="str">
-        <v>杨荔</v>
+        <v>王岳龙</v>
       </c>
       <c r="D14">
-        <v>146.39999999999998</v>
+        <v>20.5</v>
       </c>
       <c r="E14" t="str">
         <v>产品</v>
@@ -570,147 +570,147 @@
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-H-XM-1611-01 青岛检验检疫母港动植检专用电子行李查验台</v>
       </c>
       <c r="C15" t="str">
-        <v>王亚斌</v>
+        <v>郭建新</v>
       </c>
       <c r="D15">
-        <v>107.5</v>
+        <v>5</v>
       </c>
       <c r="E15" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-05大连机场快件跨境电商在线查验系统</v>
       </c>
       <c r="C16" t="str">
-        <v>王岳龙</v>
+        <v>周佳佳</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-05大连机场快件跨境电商在线查验系统</v>
       </c>
       <c r="C17" t="str">
-        <v>王欢</v>
+        <v>宋武英</v>
       </c>
       <c r="D17">
-        <v>631.5</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-05大连机场快件跨境电商在线查验系统</v>
       </c>
       <c r="C18" t="str">
-        <v>王海明</v>
+        <v>王亚斌</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E18" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-05大连机场快件跨境电商在线查验系统</v>
       </c>
       <c r="C19" t="str">
-        <v>蔡世贤</v>
+        <v>魏东</v>
       </c>
       <c r="D19">
-        <v>692</v>
+        <v>3.5</v>
       </c>
       <c r="E19" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-04苏州邮办跨境电商在线查验系统</v>
       </c>
       <c r="C20" t="str">
-        <v>蔡红保</v>
+        <v>宋武英</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-04苏州邮办跨境电商在线查验系统</v>
       </c>
       <c r="C21" t="str">
-        <v>邵国利</v>
+        <v>李永亮</v>
       </c>
       <c r="D21">
-        <v>300.5</v>
+        <v>11</v>
       </c>
       <c r="E21" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-04苏州邮办跨境电商在线查验系统</v>
       </c>
       <c r="C22" t="str">
-        <v>陈珂</v>
+        <v>王亚斌</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="E22" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-04苏州邮办跨境电商在线查验系统</v>
       </c>
       <c r="C23" t="str">
-        <v>霍俊</v>
+        <v>陈珂</v>
       </c>
       <c r="D23">
-        <v>31.5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-04苏州邮办跨境电商在线查验系统</v>
       </c>
       <c r="C24" t="str">
-        <v>霍源丽</v>
+        <v>霍俊</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" t="str">
-        <v>产品</v>
+        <v>项目</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="str">
-        <v>SCW-B-YF-1412-01在线查验系统</v>
+        <v>SCW-B-XM-1611-04苏州邮办跨境电商在线查验系统</v>
       </c>
       <c r="C25" t="str">
         <v>魏东</v>
@@ -719,6 +719,6600 @@
         <v>5</v>
       </c>
       <c r="E25" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="str">
+        <v>SCW-B-XM-1611-03内蒙古赤峰跨境电商在线查验系统</v>
+      </c>
+      <c r="C26" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D26">
+        <v>10.5</v>
+      </c>
+      <c r="E26" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>SCW-B-XM-1611-03内蒙古赤峰跨境电商在线查验系统</v>
+      </c>
+      <c r="C27" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="str">
+        <v>SCW-B-XM-1611-03内蒙古赤峰跨境电商在线查验系统</v>
+      </c>
+      <c r="C28" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D28">
+        <v>5.5</v>
+      </c>
+      <c r="E28" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="str">
+        <v>SCW-G-XM-1611-01北京南站轨道交通智能物检系统</v>
+      </c>
+      <c r="C29" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>SCW-G-XM-1611-01北京南站轨道交通智能物检系统</v>
+      </c>
+      <c r="C30" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="str">
+        <v>SCW-G-XM-1611-01北京南站轨道交通智能物检系统</v>
+      </c>
+      <c r="C31" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="str">
+        <v>实验室线体设计、组装、调试</v>
+      </c>
+      <c r="C32" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
+        <v>实验室线体设计、组装、调试</v>
+      </c>
+      <c r="C33" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D33">
+        <v>7.5</v>
+      </c>
+      <c r="E33" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="str">
+        <v>实验室线体设计、组装、调试</v>
+      </c>
+      <c r="C34" t="str">
+        <v>陈珂</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="str">
+        <v>实验室线体设计、组装、调试</v>
+      </c>
+      <c r="C35" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v>X光图像采集工装</v>
+      </c>
+      <c r="C36" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D36">
+        <v>2.5</v>
+      </c>
+      <c r="E36" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="str">
+        <v>验讫章柜子</v>
+      </c>
+      <c r="C37" t="str">
+        <v>刘智</v>
+      </c>
+      <c r="D37">
+        <v>23</v>
+      </c>
+      <c r="E37" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="str">
+        <v>验讫章柜子</v>
+      </c>
+      <c r="C38" t="str">
+        <v>李彦辉</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="str">
+        <v>验讫章柜子</v>
+      </c>
+      <c r="C39" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D39">
+        <v>76.5</v>
+      </c>
+      <c r="E39" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="str">
+        <v>验讫章柜子</v>
+      </c>
+      <c r="C40" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="str">
+        <v>海南海口物流监控平台</v>
+      </c>
+      <c r="C41" t="str">
+        <v>张亮</v>
+      </c>
+      <c r="D41">
+        <v>3.5</v>
+      </c>
+      <c r="E41" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="str">
+        <v>海南海口物流监控平台</v>
+      </c>
+      <c r="C42" t="str">
+        <v>朱永祥</v>
+      </c>
+      <c r="D42">
+        <v>26.3</v>
+      </c>
+      <c r="E42" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="str">
+        <v>海南海口物流监控平台</v>
+      </c>
+      <c r="C43" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C44" t="str">
+        <v>刘智</v>
+      </c>
+      <c r="D44">
+        <v>31</v>
+      </c>
+      <c r="E44" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C45" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C46" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D46">
+        <v>3.5</v>
+      </c>
+      <c r="E46" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C47" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D47">
+        <v>27</v>
+      </c>
+      <c r="E47" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C48" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D48">
+        <v>29</v>
+      </c>
+      <c r="E48" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C49" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D49">
+        <v>1.5</v>
+      </c>
+      <c r="E49" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C50" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D50">
+        <v>31.5</v>
+      </c>
+      <c r="E50" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C51" t="str">
+        <v>王海明</v>
+      </c>
+      <c r="D51">
+        <v>44</v>
+      </c>
+      <c r="E51" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C52" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D52">
+        <v>107</v>
+      </c>
+      <c r="E52" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C53" t="str">
+        <v>赵志远</v>
+      </c>
+      <c r="D53">
+        <v>48</v>
+      </c>
+      <c r="E53" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C54" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D54">
+        <v>11.5</v>
+      </c>
+      <c r="E54" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="str">
+        <v>SCW-L-XM-1610-02广州核生化快速智能检测系统</v>
+      </c>
+      <c r="C55" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D55">
+        <v>17.5</v>
+      </c>
+      <c r="E55" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="str">
+        <v>SCW-L-XM-1610-01 上海核生化快速智能检测系统</v>
+      </c>
+      <c r="C56" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D56">
+        <v>1.5</v>
+      </c>
+      <c r="E56" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="str">
+        <v>SCW-L-XM-1610-01 上海核生化快速智能检测系统</v>
+      </c>
+      <c r="C57" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="str">
+        <v>SCW-B-XM-1611-02新疆阿拉山口保税区跨境电商在线查验系统</v>
+      </c>
+      <c r="C58" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D58">
+        <v>15.5</v>
+      </c>
+      <c r="E58" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="str">
+        <v>SCW-B-XM-1611-02新疆阿拉山口保税区跨境电商在线查验系统</v>
+      </c>
+      <c r="C59" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="str">
+        <v>SCW-B-XM-1611-02新疆阿拉山口保税区跨境电商在线查验系统</v>
+      </c>
+      <c r="C60" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="str">
+        <v>SCW-B-XM-1611-02新疆阿拉山口保税区跨境电商在线查验系统</v>
+      </c>
+      <c r="C61" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="str">
+        <v>SCW-B-XM-1611-01江苏淮安出口加工区跨境电商在线查验系统</v>
+      </c>
+      <c r="C62" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D62">
+        <v>9.5</v>
+      </c>
+      <c r="E62" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="str">
+        <v>SCW-B-XM-1611-01江苏淮安出口加工区跨境电商在线查验系统</v>
+      </c>
+      <c r="C63" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D63">
+        <v>0.5</v>
+      </c>
+      <c r="E63" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="str">
+        <v>SCW-B-XM-1611-01江苏淮安出口加工区跨境电商在线查验系统</v>
+      </c>
+      <c r="C64" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D64">
+        <v>5.5</v>
+      </c>
+      <c r="E64" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="str">
+        <v>SCW-B-XM-1611-01江苏淮安出口加工区跨境电商在线查验系统</v>
+      </c>
+      <c r="C65" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="str">
+        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+      </c>
+      <c r="C66" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="str">
+        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+      </c>
+      <c r="C67" t="str">
+        <v>崔荣杰</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="str">
+        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+      </c>
+      <c r="C68" t="str">
+        <v>温振兴</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="str">
+        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+      </c>
+      <c r="C69" t="str">
+        <v>王海明</v>
+      </c>
+      <c r="D69">
+        <v>103</v>
+      </c>
+      <c r="E69" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="str">
+        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+      </c>
+      <c r="C70" t="str">
+        <v>王琛</v>
+      </c>
+      <c r="D70">
+        <v>122.5</v>
+      </c>
+      <c r="E70" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="str">
+        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+      </c>
+      <c r="C71" t="str">
+        <v>罗慧</v>
+      </c>
+      <c r="D71">
+        <v>29.5</v>
+      </c>
+      <c r="E71" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="str">
+        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+      </c>
+      <c r="C72" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D72">
+        <v>133</v>
+      </c>
+      <c r="E72" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="str">
+        <v>SCW-N-XM-1610-01广西凭祥保税区云洗消机器人系统</v>
+      </c>
+      <c r="C73" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="str">
+        <v xml:space="preserve">SCW-J-YF-1610-01快递安检信息管理平台 </v>
+      </c>
+      <c r="C74" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="str">
+        <v xml:space="preserve">SCW-J-YF-1610-01快递安检信息管理平台 </v>
+      </c>
+      <c r="C75" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D75">
+        <v>12.5</v>
+      </c>
+      <c r="E75" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="str">
+        <v xml:space="preserve">SCW-J-YF-1610-01快递安检信息管理平台 </v>
+      </c>
+      <c r="C76" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="str">
+        <v xml:space="preserve">SCW-J-YF-1610-01快递安检信息管理平台 </v>
+      </c>
+      <c r="C77" t="str">
+        <v>赵志远</v>
+      </c>
+      <c r="D77">
+        <v>16</v>
+      </c>
+      <c r="E77" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="str">
+        <v xml:space="preserve">SCW-J-YF-1610-01快递安检信息管理平台 </v>
+      </c>
+      <c r="C78" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="str">
+        <v>SCW-B-XM-1610-03大连港海运快件跨境电商在线查验系统</v>
+      </c>
+      <c r="C79" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D79">
+        <v>89</v>
+      </c>
+      <c r="E79" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="str">
+        <v>SCW-B-XM-1610-03大连港海运快件跨境电商在线查验系统</v>
+      </c>
+      <c r="C80" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="str">
+        <v>SCW-B-XM-1610-03大连港海运快件跨境电商在线查验系统</v>
+      </c>
+      <c r="C81" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D81">
+        <v>49</v>
+      </c>
+      <c r="E81" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="str">
+        <v>SCW-B-XM-1610-03大连港海运快件跨境电商在线查验系统</v>
+      </c>
+      <c r="C82" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="str">
+        <v>SCW-B-XM-1610-03大连港海运快件跨境电商在线查验系统</v>
+      </c>
+      <c r="C83" t="str">
+        <v>王海明</v>
+      </c>
+      <c r="D83">
+        <v>18</v>
+      </c>
+      <c r="E83" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="str">
+        <v>SCW-B-XM-1610-03大连港海运快件跨境电商在线查验系统</v>
+      </c>
+      <c r="C84" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D84">
+        <v>21</v>
+      </c>
+      <c r="E84" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="str">
+        <v>SCW-B-XM-1610-03大连港海运快件跨境电商在线查验系统</v>
+      </c>
+      <c r="C85" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="str">
+        <v>SCW-K-YF-1612-01国际快件中心业务系统</v>
+      </c>
+      <c r="C86" t="str">
+        <v>周敏</v>
+      </c>
+      <c r="D86">
+        <v>73</v>
+      </c>
+      <c r="E86" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="str">
+        <v>SCW-K-YF-1612-01国际快件中心业务系统</v>
+      </c>
+      <c r="C87" t="str">
+        <v>张亮</v>
+      </c>
+      <c r="D87">
+        <v>13.5</v>
+      </c>
+      <c r="E87" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="str">
+        <v>SCW-K-YF-1612-01国际快件中心业务系统</v>
+      </c>
+      <c r="C88" t="str">
+        <v>朱永祥</v>
+      </c>
+      <c r="D88">
+        <v>12</v>
+      </c>
+      <c r="E88" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="str">
+        <v>SCW-K-YF-1612-01国际快件中心业务系统</v>
+      </c>
+      <c r="C89" t="str">
+        <v>王铎</v>
+      </c>
+      <c r="D89">
+        <v>0.5</v>
+      </c>
+      <c r="E89" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="str">
+        <v>SCW-E-YF-1602-01空气质量与微小气候移动便携式监测仪</v>
+      </c>
+      <c r="C90" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D90">
+        <v>142.39999999999998</v>
+      </c>
+      <c r="E90" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="str">
+        <v>SCW-E-YF-1602-01空气质量与微小气候移动便携式监测仪</v>
+      </c>
+      <c r="C91" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D91">
+        <v>33.6</v>
+      </c>
+      <c r="E91" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="str">
+        <v>SCW-E-YF-1602-01空气质量与微小气候移动便携式监测仪</v>
+      </c>
+      <c r="C92" t="str">
+        <v>李彦辉</v>
+      </c>
+      <c r="D92">
+        <v>28</v>
+      </c>
+      <c r="E92" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="str">
+        <v>SCW-E-YF-1602-01空气质量与微小气候移动便携式监测仪</v>
+      </c>
+      <c r="C93" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D93">
+        <v>8</v>
+      </c>
+      <c r="E93" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="str">
+        <v>SCW-E-YF-1602-01空气质量与微小气候移动便携式监测仪</v>
+      </c>
+      <c r="C94" t="str">
+        <v>王铎</v>
+      </c>
+      <c r="D94">
+        <v>121.6</v>
+      </c>
+      <c r="E94" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="str">
+        <v>SCW-E-YF-1602-01空气质量与微小气候移动便携式监测仪</v>
+      </c>
+      <c r="C95" t="str">
+        <v>霍源丽</v>
+      </c>
+      <c r="D95">
+        <v>80</v>
+      </c>
+      <c r="E95" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C96" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D96">
+        <v>38</v>
+      </c>
+      <c r="E96" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C97" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D97">
+        <v>2.5</v>
+      </c>
+      <c r="E97" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C98" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C99" t="str">
+        <v>张少敬</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C100" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D100">
+        <v>104</v>
+      </c>
+      <c r="E100" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C101" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C102" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D102">
+        <v>71</v>
+      </c>
+      <c r="E102" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C103" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D103">
+        <v>51</v>
+      </c>
+      <c r="E103" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C104" t="str">
+        <v>李雪硕</v>
+      </c>
+      <c r="D104">
+        <v>90.5</v>
+      </c>
+      <c r="E104" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C105" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D105">
+        <v>6.5</v>
+      </c>
+      <c r="E105" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C106" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D106">
+        <v>41</v>
+      </c>
+      <c r="E106" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C107" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D107">
+        <v>180.5</v>
+      </c>
+      <c r="E107" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C108" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D108">
+        <v>88</v>
+      </c>
+      <c r="E108" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C109" t="str">
+        <v>陈珂</v>
+      </c>
+      <c r="D109">
+        <v>2.5</v>
+      </c>
+      <c r="E109" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C110" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D110">
+        <v>22</v>
+      </c>
+      <c r="E110" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="str">
+        <v>SCW-B-XM-1610-02南京金陵跨境电商在线查验系统</v>
+      </c>
+      <c r="C111" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+      <c r="E111" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="str">
+        <v>SCW-B-XM-1610-01安徽芜湖综保区跨境电商在线查验系统</v>
+      </c>
+      <c r="C112" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D112">
+        <v>7.5</v>
+      </c>
+      <c r="E112" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="str">
+        <v>SCW-B-XM-1610-01安徽芜湖综保区跨境电商在线查验系统</v>
+      </c>
+      <c r="C113" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D113">
+        <v>11</v>
+      </c>
+      <c r="E113" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="str">
+        <v>SCW-B-XM-1610-01安徽芜湖综保区跨境电商在线查验系统</v>
+      </c>
+      <c r="C114" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D114">
+        <v>0.5</v>
+      </c>
+      <c r="E114" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="str">
+        <v>SCW-B-XM-1610-01安徽芜湖综保区跨境电商在线查验系统</v>
+      </c>
+      <c r="C115" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D115">
+        <v>14.5</v>
+      </c>
+      <c r="E115" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="str">
+        <v>SCW-B-XM-1610-01安徽芜湖综保区跨境电商在线查验系统</v>
+      </c>
+      <c r="C116" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="str">
+        <v>SCW-B-XM-1610-01安徽芜湖综保区跨境电商在线查验系统</v>
+      </c>
+      <c r="C117" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D117">
+        <v>10.5</v>
+      </c>
+      <c r="E117" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="str">
+        <v>SCW-B-XM-1610-01安徽芜湖综保区跨境电商在线查验系统</v>
+      </c>
+      <c r="C118" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="str">
+        <v>SCW-B-XM-1609-03大连中韩协会跨境电商在线查验系统</v>
+      </c>
+      <c r="C119" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="str">
+        <v>SCW-B-XM-1609-03大连中韩协会跨境电商在线查验系统</v>
+      </c>
+      <c r="C120" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D120">
+        <v>32</v>
+      </c>
+      <c r="E120" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="str">
+        <v>SCW-B-XM-1609-03大连中韩协会跨境电商在线查验系统</v>
+      </c>
+      <c r="C121" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D121">
+        <v>16</v>
+      </c>
+      <c r="E121" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="str">
+        <v>SCW-B-XM-1609-03大连中韩协会跨境电商在线查验系统</v>
+      </c>
+      <c r="C122" t="str">
+        <v>王海明</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="str">
+        <v>SCW-B-XM-1609-03大连中韩协会跨境电商在线查验系统</v>
+      </c>
+      <c r="C123" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D123">
+        <v>16</v>
+      </c>
+      <c r="E123" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="str">
+        <v>SCW-Q-XM-1608-01宁波栎社机场卫检自助查验通道</v>
+      </c>
+      <c r="C124" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="str">
+        <v>SCW-Q-XM-1608-01宁波栎社机场卫检自助查验通道</v>
+      </c>
+      <c r="C125" t="str">
+        <v>王铎</v>
+      </c>
+      <c r="D125">
+        <v>348</v>
+      </c>
+      <c r="E125" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="str">
+        <v>SCW-B-XM-1609-02连云港国家级出口加工区跨境电商在线查验系统</v>
+      </c>
+      <c r="C126" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D126">
+        <v>37</v>
+      </c>
+      <c r="E126" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="str">
+        <v>SCW-B-XM-1609-02连云港国家级出口加工区跨境电商在线查验系统</v>
+      </c>
+      <c r="C127" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="str">
+        <v>SCW-B-XM-1609-02连云港国家级出口加工区跨境电商在线查验系统</v>
+      </c>
+      <c r="C128" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+      <c r="E128" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="str">
+        <v>SCW-B-XM-1609-02连云港国家级出口加工区跨境电商在线查验系统</v>
+      </c>
+      <c r="C129" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="str">
+        <v>SCW-B-XM-1609-02连云港国家级出口加工区跨境电商在线查验系统</v>
+      </c>
+      <c r="C130" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D130">
+        <v>3.5</v>
+      </c>
+      <c r="E130" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C131" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D131">
+        <v>8</v>
+      </c>
+      <c r="E131" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C132" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D132">
+        <v>0.5</v>
+      </c>
+      <c r="E132" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C133" t="str">
+        <v>张少敬</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C134" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D134">
+        <v>15</v>
+      </c>
+      <c r="E134" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C135" t="str">
+        <v>王志伟</v>
+      </c>
+      <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C136" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D136">
+        <v>27.5</v>
+      </c>
+      <c r="E136" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C137" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D137">
+        <v>71</v>
+      </c>
+      <c r="E137" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C138" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D138">
+        <v>107</v>
+      </c>
+      <c r="E138" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="str">
+        <v>SCW-B-XM-1609-01河南德众保税物流在线查验系统</v>
+      </c>
+      <c r="C139" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="str">
+        <v>SCW-B-XM-1608-01辽宁本溪跨境电商在线查验系统</v>
+      </c>
+      <c r="C140" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="str">
+        <v>SCW-B-XM-1608-01辽宁本溪跨境电商在线查验系统</v>
+      </c>
+      <c r="C141" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D141">
+        <v>15</v>
+      </c>
+      <c r="E141" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="str">
+        <v>SCW-B-XM-1608-01辽宁本溪跨境电商在线查验系统</v>
+      </c>
+      <c r="C142" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D142">
+        <v>1.5</v>
+      </c>
+      <c r="E142" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="str">
+        <v>SCW-B-XM-1608-03江苏镇江丹阳跨境电商在线查验系统</v>
+      </c>
+      <c r="C143" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D143">
+        <v>38</v>
+      </c>
+      <c r="E143" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="str">
+        <v>SCW-B-XM-1608-03江苏镇江丹阳跨境电商在线查验系统</v>
+      </c>
+      <c r="C144" t="str">
+        <v>张少敬</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="str">
+        <v>SCW-B-XM-1608-03江苏镇江丹阳跨境电商在线查验系统</v>
+      </c>
+      <c r="C145" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="str">
+        <v>SCW-B-XM-1608-03江苏镇江丹阳跨境电商在线查验系统</v>
+      </c>
+      <c r="C146" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="str">
+        <v>SCW-B-XM-1608-03江苏镇江丹阳跨境电商在线查验系统</v>
+      </c>
+      <c r="C147" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D147">
+        <v>16</v>
+      </c>
+      <c r="E147" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="str">
+        <v>SCW-B-XM-1608-03江苏镇江丹阳跨境电商在线查验系统</v>
+      </c>
+      <c r="C148" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="str">
+        <v>SCW-B-XM-1608-02四川成都双流跨境电商在线查验系统</v>
+      </c>
+      <c r="C149" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D149">
+        <v>36</v>
+      </c>
+      <c r="E149" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="str">
+        <v>SCW-B-XM-1608-02四川成都双流跨境电商在线查验系统</v>
+      </c>
+      <c r="C150" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="str">
+        <v>SCW-B-XM-1608-02四川成都双流跨境电商在线查验系统</v>
+      </c>
+      <c r="C151" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D151">
+        <v>4.5</v>
+      </c>
+      <c r="E151" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="str">
+        <v>SCW-B-XM-1608-02四川成都双流跨境电商在线查验系统</v>
+      </c>
+      <c r="C152" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="str">
+        <v>SCW-D-YF-1605-01跨境电商综合服务平台</v>
+      </c>
+      <c r="C153" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D153">
+        <v>11.5</v>
+      </c>
+      <c r="E153" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="str">
+        <v>SCW-D-YF-1605-01跨境电商综合服务平台</v>
+      </c>
+      <c r="C154" t="str">
+        <v>周伟</v>
+      </c>
+      <c r="D154">
+        <v>357</v>
+      </c>
+      <c r="E154" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="str">
+        <v>SCW-D-YF-1605-01跨境电商综合服务平台</v>
+      </c>
+      <c r="C155" t="str">
+        <v>周敏</v>
+      </c>
+      <c r="D155">
+        <v>473</v>
+      </c>
+      <c r="E155" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="str">
+        <v>SCW-D-YF-1605-01跨境电商综合服务平台</v>
+      </c>
+      <c r="C156" t="str">
+        <v>张亮</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+      <c r="E156" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="str">
+        <v>SCW-D-YF-1605-01跨境电商综合服务平台</v>
+      </c>
+      <c r="C157" t="str">
+        <v>李凯</v>
+      </c>
+      <c r="D157">
+        <v>344</v>
+      </c>
+      <c r="E157" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="str">
+        <v>SCW-D-YF-1605-01跨境电商综合服务平台</v>
+      </c>
+      <c r="C158" t="str">
+        <v>罗慧</v>
+      </c>
+      <c r="D158">
+        <v>88</v>
+      </c>
+      <c r="E158" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="str">
+        <v>SCW-D-YF-1605-01跨境电商综合服务平台</v>
+      </c>
+      <c r="C159" t="str">
+        <v>陈明</v>
+      </c>
+      <c r="D159">
+        <v>113</v>
+      </c>
+      <c r="E159" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="str">
+        <v>SCW-Y-YF-1608-01公司官网</v>
+      </c>
+      <c r="C160" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D160">
+        <v>25.5</v>
+      </c>
+      <c r="E160" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="str">
+        <v>SCW-Y-YF-1608-01公司官网</v>
+      </c>
+      <c r="C161" t="str">
+        <v>王志伟</v>
+      </c>
+      <c r="D161">
+        <v>79</v>
+      </c>
+      <c r="E161" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="str">
+        <v>SCW-Y-YF-1607-01日报周报系统</v>
+      </c>
+      <c r="C162" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D162">
+        <v>235.4</v>
+      </c>
+      <c r="E162" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="str">
+        <v>SCW-Y-YF-1607-01日报周报系统</v>
+      </c>
+      <c r="C163" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="str">
+        <v>SCW-Y-YF-1607-01日报周报系统</v>
+      </c>
+      <c r="C164" t="str">
+        <v>李彦辉</v>
+      </c>
+      <c r="D164">
+        <v>61.5</v>
+      </c>
+      <c r="E164" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="str">
+        <v>SCW-Y-YF-1607-01日报周报系统</v>
+      </c>
+      <c r="C165" t="str">
+        <v>江华</v>
+      </c>
+      <c r="D165">
+        <v>8</v>
+      </c>
+      <c r="E165" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="str">
+        <v>SCW-Y-YF-1605-01会议室预约系统</v>
+      </c>
+      <c r="C166" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D166">
+        <v>80</v>
+      </c>
+      <c r="E166" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="str">
+        <v>SCW-Z-YF-1602-01统一授权认证平台</v>
+      </c>
+      <c r="C167" t="str">
+        <v>周伟</v>
+      </c>
+      <c r="D167">
+        <v>24</v>
+      </c>
+      <c r="E167" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="str">
+        <v>SCW-Z-YF-1602-01统一授权认证平台</v>
+      </c>
+      <c r="C168" t="str">
+        <v>周敏</v>
+      </c>
+      <c r="D168">
+        <v>5.5</v>
+      </c>
+      <c r="E168" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="str">
+        <v>SCW-Z-YF-1602-01统一授权认证平台</v>
+      </c>
+      <c r="C169" t="str">
+        <v>罗慧</v>
+      </c>
+      <c r="D169">
+        <v>23</v>
+      </c>
+      <c r="E169" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="str">
+        <v>SCW-Z-YF-1602-01统一授权认证平台</v>
+      </c>
+      <c r="C170" t="str">
+        <v>霍源丽</v>
+      </c>
+      <c r="D170">
+        <v>26.4</v>
+      </c>
+      <c r="E170" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="str">
+        <v>SCW-Z-YF-1606-00公共模块库</v>
+      </c>
+      <c r="C171" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D171">
+        <v>7.5</v>
+      </c>
+      <c r="E171" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="str">
+        <v>SCW-Z-YF-1606-00公共模块库</v>
+      </c>
+      <c r="C172" t="str">
+        <v>王志伟</v>
+      </c>
+      <c r="D172">
+        <v>16</v>
+      </c>
+      <c r="E172" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="str">
+        <v>SCW-H-XM-1509-01郑州T2检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C173" t="str">
+        <v>崔荣杰</v>
+      </c>
+      <c r="D173">
+        <v>60.8</v>
+      </c>
+      <c r="E173" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="str">
+        <v>SCW-H-XM-1509-01郑州T2检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C174" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D174">
+        <v>12</v>
+      </c>
+      <c r="E174" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="str">
+        <v>SCW-H-XM-1509-01郑州T2检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C175" t="str">
+        <v>李健森</v>
+      </c>
+      <c r="D175">
+        <v>51.2</v>
+      </c>
+      <c r="E175" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="str">
+        <v>SCW-H-XM-1509-01郑州T2检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C176" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D176">
+        <v>427.4000000000001</v>
+      </c>
+      <c r="E176" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="str">
+        <v>SCW-B-XM-1511-01福州马尾跨境电商在线查验系统</v>
+      </c>
+      <c r="C177" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+      <c r="E177" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="str">
+        <v>SCW-B-XM-1511-01福州马尾跨境电商在线查验系统</v>
+      </c>
+      <c r="C178" t="str">
+        <v>温振兴</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="str">
+        <v>SCW-B-XM-1511-01福州马尾跨境电商在线查验系统</v>
+      </c>
+      <c r="C179" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D179">
+        <v>258</v>
+      </c>
+      <c r="E179" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="str">
+        <v>SCW-B-XM-1511-01福州马尾跨境电商在线查验系统</v>
+      </c>
+      <c r="C180" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D180">
+        <v>29</v>
+      </c>
+      <c r="E180" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="str">
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+      </c>
+      <c r="C181" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D181">
+        <v>21</v>
+      </c>
+      <c r="E181" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="str">
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+      </c>
+      <c r="C182" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D182">
+        <v>17</v>
+      </c>
+      <c r="E182" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="str">
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+      </c>
+      <c r="C183" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="str">
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+      </c>
+      <c r="C184" t="str">
+        <v>李彦辉</v>
+      </c>
+      <c r="D184">
+        <v>103.5</v>
+      </c>
+      <c r="E184" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="str">
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+      </c>
+      <c r="C185" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D185">
+        <v>127</v>
+      </c>
+      <c r="E185" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="str">
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+      </c>
+      <c r="C186" t="str">
+        <v>王志伟</v>
+      </c>
+      <c r="D186">
+        <v>111</v>
+      </c>
+      <c r="E186" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="str">
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+      </c>
+      <c r="C187" t="str">
+        <v>王琛</v>
+      </c>
+      <c r="D187">
+        <v>32</v>
+      </c>
+      <c r="E187" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="str">
+        <v>SCW-Q-YF-1607-01卫检自助查验通道</v>
+      </c>
+      <c r="C188" t="str">
+        <v>王铎</v>
+      </c>
+      <c r="D188">
+        <v>304.90000000000003</v>
+      </c>
+      <c r="E188" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="str">
+        <v>SCW-PRE-XM-1607-01顺丰安检项目</v>
+      </c>
+      <c r="C189" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D189">
+        <v>53</v>
+      </c>
+      <c r="E189" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="str">
+        <v>SCW-PRE-XM-1607-01顺丰安检项目</v>
+      </c>
+      <c r="C190" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D190">
+        <v>56</v>
+      </c>
+      <c r="E190" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="str">
+        <v>SCW-PRE-XM-1607-01顺丰安检项目</v>
+      </c>
+      <c r="C191" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D191">
+        <v>25</v>
+      </c>
+      <c r="E191" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="str">
+        <v>SCW-PRE-XM-1607-01顺丰安检项目</v>
+      </c>
+      <c r="C192" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D192">
+        <v>11</v>
+      </c>
+      <c r="E192" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="str">
+        <v>SCW-PRE-XM-1607-01顺丰安检项目</v>
+      </c>
+      <c r="C193" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="E193" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C194" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D194">
+        <v>16</v>
+      </c>
+      <c r="E194" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C195" t="str">
+        <v>崔荣杰</v>
+      </c>
+      <c r="D195">
+        <v>90.39999999999999</v>
+      </c>
+      <c r="E195" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C196" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C197" t="str">
+        <v>李健森</v>
+      </c>
+      <c r="D197">
+        <v>24</v>
+      </c>
+      <c r="E197" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C198" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D198">
+        <v>8</v>
+      </c>
+      <c r="E198" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C199" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D199">
+        <v>170.8</v>
+      </c>
+      <c r="E199" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C200" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D200">
+        <v>4</v>
+      </c>
+      <c r="E200" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C201" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D201">
+        <v>16</v>
+      </c>
+      <c r="E201" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C202" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D202">
+        <v>104.8</v>
+      </c>
+      <c r="E202" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="str">
+        <v>SCW-B-XM-1512-02威海邮办快件在线查验系统</v>
+      </c>
+      <c r="C203" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D203">
+        <v>1.5</v>
+      </c>
+      <c r="E203" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="str">
+        <v>SCW-B-XM-1512-03烟台邮办快件在线查验系统</v>
+      </c>
+      <c r="C204" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="str">
+        <v>SCW-B-XM-1512-03烟台邮办快件在线查验系统</v>
+      </c>
+      <c r="C205" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D205">
+        <v>4</v>
+      </c>
+      <c r="E205" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="str">
+        <v>SCW-B-XM-1512-03烟台邮办快件在线查验系统</v>
+      </c>
+      <c r="C206" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D206">
+        <v>7</v>
+      </c>
+      <c r="E206" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="str">
+        <v>SCW-B-XM-1512-03烟台邮办快件在线查验系统</v>
+      </c>
+      <c r="C207" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D207">
+        <v>71</v>
+      </c>
+      <c r="E207" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="str">
+        <v>SCW-B-XM-1512-03烟台邮办快件在线查验系统</v>
+      </c>
+      <c r="C208" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D208">
+        <v>4</v>
+      </c>
+      <c r="E208" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="str">
+        <v>SCW-B-XM-1512-03烟台邮办快件在线查验系统</v>
+      </c>
+      <c r="C209" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="str">
+        <v>SCW-B-XM-1512-04广州南沙跨境电商在线查验系统</v>
+      </c>
+      <c r="C210" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D210">
+        <v>6</v>
+      </c>
+      <c r="E210" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="str">
+        <v>SCW-B-XM-1512-04广州南沙跨境电商在线查验系统</v>
+      </c>
+      <c r="C211" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D211">
+        <v>16</v>
+      </c>
+      <c r="E211" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="str">
+        <v>SCW-B-XM-1512-04广州南沙跨境电商在线查验系统</v>
+      </c>
+      <c r="C212" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D212">
+        <v>28</v>
+      </c>
+      <c r="E212" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="str">
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+      </c>
+      <c r="C213" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D213">
+        <v>11.5</v>
+      </c>
+      <c r="E213" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="str">
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+      </c>
+      <c r="C214" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="str">
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+      </c>
+      <c r="C215" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+      <c r="E215" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="str">
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+      </c>
+      <c r="C216" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D216">
+        <v>221.5</v>
+      </c>
+      <c r="E216" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="str">
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+      </c>
+      <c r="C217" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D217">
+        <v>8</v>
+      </c>
+      <c r="E217" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="str">
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+      </c>
+      <c r="C218" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D218">
+        <v>235</v>
+      </c>
+      <c r="E218" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="str">
+        <v>SCW-B-XM-1602-01长沙金霞通跨境电商在线查验系统</v>
+      </c>
+      <c r="C219" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="str">
+        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+      </c>
+      <c r="C220" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="str">
+        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+      </c>
+      <c r="C221" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D221">
+        <v>67.2</v>
+      </c>
+      <c r="E221" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="str">
+        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+      </c>
+      <c r="C222" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D222">
+        <v>12</v>
+      </c>
+      <c r="E222" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="str">
+        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+      </c>
+      <c r="C223" t="str">
+        <v>温振兴</v>
+      </c>
+      <c r="D223">
+        <v>5</v>
+      </c>
+      <c r="E223" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="str">
+        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+      </c>
+      <c r="C224" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D224">
+        <v>39.5</v>
+      </c>
+      <c r="E224" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="str">
+        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+      </c>
+      <c r="C225" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D225">
+        <v>101.5</v>
+      </c>
+      <c r="E225" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="str">
+        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+      </c>
+      <c r="C226" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D226">
+        <v>32</v>
+      </c>
+      <c r="E226" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="str">
+        <v>SCW-B-XM-1603-01江苏连云港跨境电商在线查验系统</v>
+      </c>
+      <c r="C227" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D227">
+        <v>43</v>
+      </c>
+      <c r="E227" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C228" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D228">
+        <v>347</v>
+      </c>
+      <c r="E228" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C229" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D229">
+        <v>48.5</v>
+      </c>
+      <c r="E229" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C230" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D230">
+        <v>59</v>
+      </c>
+      <c r="E230" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C231" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C232" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C233" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D233">
+        <v>38</v>
+      </c>
+      <c r="E233" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C234" t="str">
+        <v>李凯</v>
+      </c>
+      <c r="D234">
+        <v>8</v>
+      </c>
+      <c r="E234" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C235" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D235">
+        <v>390</v>
+      </c>
+      <c r="E235" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C236" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D236">
+        <v>69</v>
+      </c>
+      <c r="E236" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C237" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D237">
+        <v>32</v>
+      </c>
+      <c r="E237" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C238" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D238">
+        <v>4</v>
+      </c>
+      <c r="E238" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C239" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D239">
+        <v>44</v>
+      </c>
+      <c r="E239" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="str">
+        <v>SCW-B-XM-1604-01苏州高新区跨境电商在线查验系统</v>
+      </c>
+      <c r="C240" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D240">
+        <v>4.5</v>
+      </c>
+      <c r="E240" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="str">
+        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
+      </c>
+      <c r="C241" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D241">
+        <v>332</v>
+      </c>
+      <c r="E241" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="str">
+        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
+      </c>
+      <c r="C242" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D242">
+        <v>19</v>
+      </c>
+      <c r="E242" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="str">
+        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
+      </c>
+      <c r="C243" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D243">
+        <v>7.5</v>
+      </c>
+      <c r="E243" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="str">
+        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
+      </c>
+      <c r="C244" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D244">
+        <v>7</v>
+      </c>
+      <c r="E244" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="str">
+        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
+      </c>
+      <c r="C245" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D245">
+        <v>12.5</v>
+      </c>
+      <c r="E245" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="str">
+        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
+      </c>
+      <c r="C246" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D246">
+        <v>48</v>
+      </c>
+      <c r="E246" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="str">
+        <v>SCW-B-XM-1604-02苏州吴中跨境电商在线查验系统</v>
+      </c>
+      <c r="C247" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D247">
+        <v>110.5</v>
+      </c>
+      <c r="E247" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="str">
+        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+      </c>
+      <c r="C248" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="str">
+        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+      </c>
+      <c r="C249" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D249">
+        <v>9</v>
+      </c>
+      <c r="E249" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="str">
+        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+      </c>
+      <c r="C250" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D250">
+        <v>10</v>
+      </c>
+      <c r="E250" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="str">
+        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+      </c>
+      <c r="C251" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D251">
+        <v>49</v>
+      </c>
+      <c r="E251" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="str">
+        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+      </c>
+      <c r="C252" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D252">
+        <v>151</v>
+      </c>
+      <c r="E252" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="str">
+        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+      </c>
+      <c r="C253" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D253">
+        <v>366</v>
+      </c>
+      <c r="E253" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="str">
+        <v>SCW-B-XM-1606-01天津华宇跨境电商在线查验系统</v>
+      </c>
+      <c r="C254" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D254">
+        <v>6.5</v>
+      </c>
+      <c r="E254" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C255" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D255">
+        <v>4</v>
+      </c>
+      <c r="E255" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C256" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D256">
+        <v>4</v>
+      </c>
+      <c r="E256" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C257" t="str">
+        <v>刘超楠</v>
+      </c>
+      <c r="D257">
+        <v>12</v>
+      </c>
+      <c r="E257" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C258" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C259" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C260" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D260">
+        <v>210</v>
+      </c>
+      <c r="E260" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C261" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D261">
+        <v>10</v>
+      </c>
+      <c r="E261" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C262" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D262">
+        <v>79</v>
+      </c>
+      <c r="E262" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C263" t="str">
+        <v>陈珂</v>
+      </c>
+      <c r="D263">
+        <v>3</v>
+      </c>
+      <c r="E263" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C264" t="str">
+        <v>雷时雨</v>
+      </c>
+      <c r="D264">
+        <v>18</v>
+      </c>
+      <c r="E264" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="str">
+        <v>SCW-B-XM-1606-02太原武宿跨境电商在线查验系统</v>
+      </c>
+      <c r="C265" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D265">
+        <v>4</v>
+      </c>
+      <c r="E265" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C266" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D266">
+        <v>138</v>
+      </c>
+      <c r="E266" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C267" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D267">
+        <v>8</v>
+      </c>
+      <c r="E267" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C268" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C269" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D269">
+        <v>0.5</v>
+      </c>
+      <c r="E269" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C270" t="str">
+        <v>朱永祥</v>
+      </c>
+      <c r="D270">
+        <v>5</v>
+      </c>
+      <c r="E270" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C271" t="str">
+        <v>李世河</v>
+      </c>
+      <c r="D271">
+        <v>32</v>
+      </c>
+      <c r="E271" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C272" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D272">
+        <v>9</v>
+      </c>
+      <c r="E272" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C273" t="str">
+        <v>李凯</v>
+      </c>
+      <c r="D273">
+        <v>15</v>
+      </c>
+      <c r="E273" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C274" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D274">
+        <v>30</v>
+      </c>
+      <c r="E274" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C275" t="str">
+        <v>李雪硕</v>
+      </c>
+      <c r="D275">
+        <v>28</v>
+      </c>
+      <c r="E275" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C276" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D276">
+        <v>43.5</v>
+      </c>
+      <c r="E276" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C277" t="str">
+        <v>王海明</v>
+      </c>
+      <c r="D277">
+        <v>45</v>
+      </c>
+      <c r="E277" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C278" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D278">
+        <v>27</v>
+      </c>
+      <c r="E278" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C279" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D279">
+        <v>13</v>
+      </c>
+      <c r="E279" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="str">
+        <v>SCW-B-XM-1512-01武汉东湖综保区跨境电商查验仓物流监管系统</v>
+      </c>
+      <c r="C280" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D280">
+        <v>4</v>
+      </c>
+      <c r="E280" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="str">
+        <v>SCW-B-XM-1509-02绥芬河龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C281" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D281">
+        <v>0.5</v>
+      </c>
+      <c r="E281" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="str">
+        <v>SCW-B-XM-1509-02绥芬河龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C282" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D282">
+        <v>8</v>
+      </c>
+      <c r="E282" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="str">
+        <v>SCW-A-XM-1506-01郑州检验检疫驻邮办云图引擎单机版</v>
+      </c>
+      <c r="C283" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D283">
+        <v>16</v>
+      </c>
+      <c r="E283" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="str">
+        <v>SCW-A-YF-1608-01云图引擎</v>
+      </c>
+      <c r="C284" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D284">
+        <v>11</v>
+      </c>
+      <c r="E284" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="str">
+        <v>SCW-A-YF-1608-01云图引擎</v>
+      </c>
+      <c r="C285" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D285">
+        <v>25.6</v>
+      </c>
+      <c r="E285" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C286" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D286">
+        <v>4</v>
+      </c>
+      <c r="E286" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C287" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+      <c r="E287" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C288" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D288">
+        <v>4.5</v>
+      </c>
+      <c r="E288" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C289" t="str">
+        <v>李世河</v>
+      </c>
+      <c r="D289">
+        <v>117</v>
+      </c>
+      <c r="E289" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C290" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D290">
+        <v>11</v>
+      </c>
+      <c r="E290" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C291" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D291">
+        <v>62</v>
+      </c>
+      <c r="E291" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C292" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D292">
+        <v>2.4</v>
+      </c>
+      <c r="E292" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C293" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D293">
+        <v>1.5</v>
+      </c>
+      <c r="E293" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C294" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D294">
+        <v>42.5</v>
+      </c>
+      <c r="E294" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C295" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D295">
+        <v>33.5</v>
+      </c>
+      <c r="E295" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="str">
+        <v>SCW-B-XM-1412-01青岛邮办快件在线查验系统</v>
+      </c>
+      <c r="C296" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="str">
+        <v>SCW-B-XM-1412-03济南邮办快件在线查验系统</v>
+      </c>
+      <c r="C297" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D297">
+        <v>8</v>
+      </c>
+      <c r="E297" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="str">
+        <v>SCW-B-XM-1412-03济南邮办快件在线查验系统</v>
+      </c>
+      <c r="C298" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D298">
+        <v>10</v>
+      </c>
+      <c r="E298" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="str">
+        <v>SCW-B-XM-1412-03济南邮办快件在线查验系统</v>
+      </c>
+      <c r="C299" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D299">
+        <v>68</v>
+      </c>
+      <c r="E299" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="str">
+        <v>SCW-B-XM-1412-03济南邮办快件在线查验系统</v>
+      </c>
+      <c r="C300" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D300">
+        <v>90</v>
+      </c>
+      <c r="E300" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="str">
+        <v>SCW-B-XM-1505-01广州状元谷跨境电商在线查验系统</v>
+      </c>
+      <c r="C301" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D301">
+        <v>0.5</v>
+      </c>
+      <c r="E301" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="str">
+        <v>SCW-B-XM-1505-01广州状元谷跨境电商在线查验系统</v>
+      </c>
+      <c r="C302" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D302">
+        <v>39.5</v>
+      </c>
+      <c r="E302" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="str">
+        <v>SCW-B-XM-1505-01广州状元谷跨境电商在线查验系统</v>
+      </c>
+      <c r="C303" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+      <c r="E303" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="str">
+        <v>SCW-B-XM-1505-01广州状元谷跨境电商在线查验系统</v>
+      </c>
+      <c r="C304" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D304">
+        <v>21</v>
+      </c>
+      <c r="E304" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="str">
+        <v>SCW-B-XM-1505-01广州状元谷跨境电商在线查验系统</v>
+      </c>
+      <c r="C305" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D305">
+        <v>5</v>
+      </c>
+      <c r="E305" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="str">
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+      </c>
+      <c r="C306" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D306">
+        <v>1.5</v>
+      </c>
+      <c r="E306" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="str">
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+      </c>
+      <c r="C307" t="str">
+        <v>张少敬</v>
+      </c>
+      <c r="D307">
+        <v>4</v>
+      </c>
+      <c r="E307" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="str">
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+      </c>
+      <c r="C308" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D308">
+        <v>3</v>
+      </c>
+      <c r="E308" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="str">
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+      </c>
+      <c r="C309" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D309">
+        <v>13</v>
+      </c>
+      <c r="E309" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="str">
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+      </c>
+      <c r="C310" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D310">
+        <v>225</v>
+      </c>
+      <c r="E310" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="str">
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+      </c>
+      <c r="C311" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D311">
+        <v>57</v>
+      </c>
+      <c r="E311" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="str">
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+      </c>
+      <c r="C312" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D312">
+        <v>36</v>
+      </c>
+      <c r="E312" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="str">
+        <v>SCW-B-XM-1508-01延吉快件在线查验系统</v>
+      </c>
+      <c r="C313" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D313">
+        <v>11</v>
+      </c>
+      <c r="E313" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="str">
+        <v>SCW-B-XM-1508-02绥芬河云仓跨境电商在线查验系统</v>
+      </c>
+      <c r="C314" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D314">
+        <v>170</v>
+      </c>
+      <c r="E314" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="str">
+        <v>SCW-B-XM-1508-02绥芬河云仓跨境电商在线查验系统</v>
+      </c>
+      <c r="C315" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+      <c r="E315" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="str">
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C316" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D316">
+        <v>13</v>
+      </c>
+      <c r="E316" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="str">
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C317" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="str">
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C318" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+      <c r="E318" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="str">
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C319" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D319">
+        <v>46</v>
+      </c>
+      <c r="E319" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="str">
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C320" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D320">
+        <v>26</v>
+      </c>
+      <c r="E320" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="str">
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C321" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D321">
+        <v>23</v>
+      </c>
+      <c r="E321" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="str">
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C322" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D322">
+        <v>17</v>
+      </c>
+      <c r="E322" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="str">
+        <v>SCW-B-XM-1509-01哈尔滨龙关通跨境电商在线查验系统</v>
+      </c>
+      <c r="C323" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D323">
+        <v>5</v>
+      </c>
+      <c r="E323" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="str">
+        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
+      </c>
+      <c r="C324" t="str">
+        <v>张少敬</v>
+      </c>
+      <c r="D324">
+        <v>7</v>
+      </c>
+      <c r="E324" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" t="str">
+        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
+      </c>
+      <c r="C325" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D325">
+        <v>1.5</v>
+      </c>
+      <c r="E325" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="str">
+        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
+      </c>
+      <c r="C326" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+      <c r="E326" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="str">
+        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
+      </c>
+      <c r="C327" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D327">
+        <v>1.5</v>
+      </c>
+      <c r="E327" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="str">
+        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
+      </c>
+      <c r="C328" t="str">
+        <v>王琛</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+      <c r="E328" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" t="str">
+        <v>SCW-B-XM-1606-03江苏盐城跨境电商在线查验系统</v>
+      </c>
+      <c r="C329" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D329">
+        <v>27</v>
+      </c>
+      <c r="E329" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="str">
+        <v>SCW-B-XM-1606-04安徽合肥跨境电商在线查验系统</v>
+      </c>
+      <c r="C330" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D330">
+        <v>59</v>
+      </c>
+      <c r="E330" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="str">
+        <v>SCW-B-XM-1606-04安徽合肥跨境电商在线查验系统</v>
+      </c>
+      <c r="C331" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D331">
+        <v>50.5</v>
+      </c>
+      <c r="E331" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="str">
+        <v>SCW-H-XM-1512-01青岛机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C332" t="str">
+        <v>李健森</v>
+      </c>
+      <c r="D332">
+        <v>4</v>
+      </c>
+      <c r="E332" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="str">
+        <v>SCW-H-XM-1512-01青岛机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C333" t="str">
+        <v>李雪硕</v>
+      </c>
+      <c r="D333">
+        <v>8</v>
+      </c>
+      <c r="E333" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="str">
+        <v>SCW-H-XM-1512-01青岛机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C334" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D334">
+        <v>79.2</v>
+      </c>
+      <c r="E334" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="str">
+        <v>SCW-H-XM-1512-02合肥机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C335" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D335">
+        <v>3</v>
+      </c>
+      <c r="E335" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="str">
+        <v>SCW-H-XM-1512-02合肥机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C336" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D336">
+        <v>27</v>
+      </c>
+      <c r="E336" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="str">
+        <v>SCW-H-XM-1606-01包头机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C337" t="str">
+        <v>刘超楠</v>
+      </c>
+      <c r="D337">
+        <v>4</v>
+      </c>
+      <c r="E337" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="str">
+        <v>SCW-H-XM-1606-01包头机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C338" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D338">
+        <v>15</v>
+      </c>
+      <c r="E338" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="str">
+        <v>SCW-H-XM-1606-01包头机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C339" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D339">
+        <v>11.2</v>
+      </c>
+      <c r="E339" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="str">
+        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C340" t="str">
+        <v>崔荣杰</v>
+      </c>
+      <c r="D340">
+        <v>23.4</v>
+      </c>
+      <c r="E340" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="str">
+        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C341" t="str">
+        <v>李健森</v>
+      </c>
+      <c r="D341">
+        <v>139</v>
+      </c>
+      <c r="E341" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="str">
+        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C342" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D342">
+        <v>4</v>
+      </c>
+      <c r="E342" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="str">
+        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C343" t="str">
+        <v>李雪硕</v>
+      </c>
+      <c r="D343">
+        <v>24</v>
+      </c>
+      <c r="E343" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="str">
+        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C344" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D344">
+        <v>44.599999999999994</v>
+      </c>
+      <c r="E344" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="str">
+        <v>SCW-H-XM-1606-02杭州机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C345" t="str">
+        <v>雷时雨</v>
+      </c>
+      <c r="D345">
+        <v>53</v>
+      </c>
+      <c r="E345" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="str">
+        <v>SCW-H-XM-1607-01太原机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C346" t="str">
+        <v>李健森</v>
+      </c>
+      <c r="D346">
+        <v>4</v>
+      </c>
+      <c r="E346" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="str">
+        <v>SCW-H-XM-1607-01太原机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C347" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D347">
+        <v>24</v>
+      </c>
+      <c r="E347" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C348" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D348">
+        <v>17.5</v>
+      </c>
+      <c r="E348" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C349" t="str">
+        <v>孔德成</v>
+      </c>
+      <c r="D349">
+        <v>77</v>
+      </c>
+      <c r="E349" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C350" t="str">
+        <v>崔荣杰</v>
+      </c>
+      <c r="D350">
+        <v>728</v>
+      </c>
+      <c r="E350" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C351" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D351">
+        <v>193</v>
+      </c>
+      <c r="E351" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C352" t="str">
+        <v>李健森</v>
+      </c>
+      <c r="D352">
+        <v>135</v>
+      </c>
+      <c r="E352" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C353" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D353">
+        <v>21.6</v>
+      </c>
+      <c r="E353" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C354" t="str">
+        <v>李彦辉</v>
+      </c>
+      <c r="D354">
+        <v>11</v>
+      </c>
+      <c r="E354" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C355" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D355">
+        <v>2</v>
+      </c>
+      <c r="E355" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C356" t="str">
+        <v>李雪硕</v>
+      </c>
+      <c r="D356">
+        <v>91</v>
+      </c>
+      <c r="E356" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C357" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D357">
+        <v>96.80000000000001</v>
+      </c>
+      <c r="E357" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C358" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D358">
+        <v>92.4</v>
+      </c>
+      <c r="E358" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C359" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D359">
+        <v>535.5</v>
+      </c>
+      <c r="E359" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="str">
+        <v>SCW-H-YF-1606-01查验工作台</v>
+      </c>
+      <c r="C360" t="str">
+        <v>雷时雨</v>
+      </c>
+      <c r="D360">
+        <v>18</v>
+      </c>
+      <c r="E360" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C361" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D361">
+        <v>172</v>
+      </c>
+      <c r="E361" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C362" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D362">
+        <v>116.8</v>
+      </c>
+      <c r="E362" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C363" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D363">
+        <v>20.6</v>
+      </c>
+      <c r="E363" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C364" t="str">
+        <v>李健森</v>
+      </c>
+      <c r="D364">
+        <v>8</v>
+      </c>
+      <c r="E364" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C365" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D365">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="E365" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C366" t="str">
+        <v>李彦辉</v>
+      </c>
+      <c r="D366">
+        <v>105</v>
+      </c>
+      <c r="E366" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C367" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D367">
+        <v>192</v>
+      </c>
+      <c r="E367" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C368" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D368">
+        <v>172.59999999999997</v>
+      </c>
+      <c r="E368" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C369" t="str">
+        <v>温振兴</v>
+      </c>
+      <c r="D369">
+        <v>4</v>
+      </c>
+      <c r="E369" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C370" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D370">
+        <v>166.6</v>
+      </c>
+      <c r="E370" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C371" t="str">
+        <v>王海明</v>
+      </c>
+      <c r="D371">
+        <v>15</v>
+      </c>
+      <c r="E371" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C372" t="str">
+        <v>王琛</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+      <c r="E372" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C373" t="str">
+        <v>王铎</v>
+      </c>
+      <c r="D373">
+        <v>8.5</v>
+      </c>
+      <c r="E373" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C374" t="str">
+        <v>罗慧</v>
+      </c>
+      <c r="D374">
+        <v>76.5</v>
+      </c>
+      <c r="E374" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="str">
+        <v>SCW-L-YF-1606-01核生化有害因子在线检测</v>
+      </c>
+      <c r="C375" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D375">
+        <v>237.5</v>
+      </c>
+      <c r="E375" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C376" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D376">
+        <v>416.9000000000001</v>
+      </c>
+      <c r="E376" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C377" t="str">
+        <v>刘智</v>
+      </c>
+      <c r="D377">
+        <v>24</v>
+      </c>
+      <c r="E377" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C378" t="str">
+        <v>刘超楠</v>
+      </c>
+      <c r="D378">
+        <v>36</v>
+      </c>
+      <c r="E378" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C379" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D379">
+        <v>20</v>
+      </c>
+      <c r="E379" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C380" t="str">
+        <v>崔荣杰</v>
+      </c>
+      <c r="D380">
+        <v>6</v>
+      </c>
+      <c r="E380" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C381" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D381">
+        <v>21.8</v>
+      </c>
+      <c r="E381" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C382" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D382">
+        <v>23.6</v>
+      </c>
+      <c r="E382" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C383" t="str">
+        <v>李阳</v>
+      </c>
+      <c r="D383">
+        <v>1516.9999999999998</v>
+      </c>
+      <c r="E383" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C384" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D384">
+        <v>0.5</v>
+      </c>
+      <c r="E384" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C385" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D385">
+        <v>10</v>
+      </c>
+      <c r="E385" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="B386" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C386" t="str">
+        <v>王志伟</v>
+      </c>
+      <c r="D386">
+        <v>42</v>
+      </c>
+      <c r="E386" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C387" t="str">
+        <v>王铎</v>
+      </c>
+      <c r="D387">
+        <v>619.9000000000002</v>
+      </c>
+      <c r="E387" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C388" t="str">
+        <v>罗慧</v>
+      </c>
+      <c r="D388">
+        <v>110</v>
+      </c>
+      <c r="E388" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="B389" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C389" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D389">
+        <v>67</v>
+      </c>
+      <c r="E389" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C390" t="str">
+        <v>雷时雨</v>
+      </c>
+      <c r="D390">
+        <v>20</v>
+      </c>
+      <c r="E390" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" t="str">
+        <v>SCW-M-YF-1603-01吉林口岸核联网上报指挥</v>
+      </c>
+      <c r="C391" t="str">
+        <v>霍源丽</v>
+      </c>
+      <c r="D391">
+        <v>220.79999999999998</v>
+      </c>
+      <c r="E391" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="B392" t="str">
+        <v>SCW-H-XM-1511-01武汉天河机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C392" t="str">
+        <v>李健森</v>
+      </c>
+      <c r="D392">
+        <v>6</v>
+      </c>
+      <c r="E392" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="B393" t="str">
+        <v>SCW-H-XM-1511-01武汉天河机场检验检疫专用电子行李查验台</v>
+      </c>
+      <c r="C393" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D393">
+        <v>4</v>
+      </c>
+      <c r="E393" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="B394" t="str">
+        <v>SCW-H-XM-1506-01郑州检验检疫驻邮办专用电子快件查验台</v>
+      </c>
+      <c r="C394" t="str">
+        <v>刘智</v>
+      </c>
+      <c r="D394">
+        <v>6</v>
+      </c>
+      <c r="E394" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" t="str">
+        <v>SCW-H-XM-1506-01郑州检验检疫驻邮办专用电子快件查验台</v>
+      </c>
+      <c r="C395" t="str">
+        <v>李健森</v>
+      </c>
+      <c r="D395">
+        <v>42</v>
+      </c>
+      <c r="E395" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="B396" t="str">
+        <v>SCW-H-XM-1506-01郑州检验检疫驻邮办专用电子快件查验台</v>
+      </c>
+      <c r="C396" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D396">
+        <v>6</v>
+      </c>
+      <c r="E396" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="B397" t="str">
+        <v>SCW-H-XM-1506-01郑州检验检疫驻邮办专用电子快件查验台</v>
+      </c>
+      <c r="C397" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D397">
+        <v>28.7</v>
+      </c>
+      <c r="E397" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="B398" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C398" t="str">
+        <v>刘声尧</v>
+      </c>
+      <c r="D398">
+        <v>138</v>
+      </c>
+      <c r="E398" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="B399" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C399" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D399">
+        <v>255.20000000000002</v>
+      </c>
+      <c r="E399" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="B400" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C400" t="str">
+        <v>孔德成</v>
+      </c>
+      <c r="D400">
+        <v>139</v>
+      </c>
+      <c r="E400" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="B401" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C401" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D401">
+        <v>4.5</v>
+      </c>
+      <c r="E401" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="B402" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C402" t="str">
+        <v>张少敬</v>
+      </c>
+      <c r="D402">
+        <v>8</v>
+      </c>
+      <c r="E402" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="B403" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C403" t="str">
+        <v>张树刚</v>
+      </c>
+      <c r="D403">
+        <v>26.5</v>
+      </c>
+      <c r="E403" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C404" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D404">
+        <v>44.49999999999999</v>
+      </c>
+      <c r="E404" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="B405" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C405" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D405">
+        <v>443.99999999999994</v>
+      </c>
+      <c r="E405" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="B406" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C406" t="str">
+        <v>李彦辉</v>
+      </c>
+      <c r="D406">
+        <v>78</v>
+      </c>
+      <c r="E406" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="B407" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C407" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D407">
+        <v>15</v>
+      </c>
+      <c r="E407" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="B408" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C408" t="str">
+        <v>李荣鹏</v>
+      </c>
+      <c r="D408">
+        <v>124</v>
+      </c>
+      <c r="E408" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="B409" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C409" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D409">
+        <v>146.39999999999998</v>
+      </c>
+      <c r="E409" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="B410" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C410" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D410">
+        <v>107.5</v>
+      </c>
+      <c r="E410" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="B411" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C411" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="B412" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C412" t="str">
+        <v>王欢</v>
+      </c>
+      <c r="D412">
+        <v>631.5</v>
+      </c>
+      <c r="E412" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="B413" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C413" t="str">
+        <v>王海明</v>
+      </c>
+      <c r="D413">
+        <v>3</v>
+      </c>
+      <c r="E413" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="B414" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C414" t="str">
+        <v>蔡世贤</v>
+      </c>
+      <c r="D414">
+        <v>692</v>
+      </c>
+      <c r="E414" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C415" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D415">
+        <v>17</v>
+      </c>
+      <c r="E415" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="B416" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C416" t="str">
+        <v>邵国利</v>
+      </c>
+      <c r="D416">
+        <v>300.5</v>
+      </c>
+      <c r="E416" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="B417" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C417" t="str">
+        <v>陈珂</v>
+      </c>
+      <c r="D417">
+        <v>15</v>
+      </c>
+      <c r="E417" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="B418" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C418" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D418">
+        <v>31.5</v>
+      </c>
+      <c r="E418" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="B419" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C419" t="str">
+        <v>霍源丽</v>
+      </c>
+      <c r="D419">
+        <v>12</v>
+      </c>
+      <c r="E419" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" t="str">
+        <v>SCW-B-YF-1412-01在线查验系统</v>
+      </c>
+      <c r="C420" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D420">
+        <v>5</v>
+      </c>
+      <c r="E420" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="B421" t="str">
+        <v>SCW-B-YF-1606-01在线查验系统（关检公共版）</v>
+      </c>
+      <c r="C421" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D421">
+        <v>3</v>
+      </c>
+      <c r="E421" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="B422" t="str">
+        <v>SCW-B-YF-1606-01在线查验系统（关检公共版）</v>
+      </c>
+      <c r="C422" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="B423" t="str">
+        <v>SCW-B-YF-1606-01在线查验系统（关检公共版）</v>
+      </c>
+      <c r="C423" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D423">
+        <v>289</v>
+      </c>
+      <c r="E423" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" t="str">
+        <v>SCW-B-YF-1606-01在线查验系统（关检公共版）</v>
+      </c>
+      <c r="C424" t="str">
+        <v>陈珂</v>
+      </c>
+      <c r="D424">
+        <v>3</v>
+      </c>
+      <c r="E424" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="B425" t="str">
+        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
+      </c>
+      <c r="C425" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D425">
+        <v>1</v>
+      </c>
+      <c r="E425" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="B426" t="str">
+        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
+      </c>
+      <c r="C426" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D426">
+        <v>27</v>
+      </c>
+      <c r="E426" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="B427" t="str">
+        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
+      </c>
+      <c r="C427" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="B428" t="str">
+        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
+      </c>
+      <c r="C428" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D428">
+        <v>355.1000000000001</v>
+      </c>
+      <c r="E428" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="B429" t="str">
+        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
+      </c>
+      <c r="C429" t="str">
+        <v>温振兴</v>
+      </c>
+      <c r="D429">
+        <v>95</v>
+      </c>
+      <c r="E429" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="B430" t="str">
+        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
+      </c>
+      <c r="C430" t="str">
+        <v>罗慧</v>
+      </c>
+      <c r="D430">
+        <v>1.5</v>
+      </c>
+      <c r="E430" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="B431" t="str">
+        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
+      </c>
+      <c r="C431" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D431">
+        <v>436.5000000000002</v>
+      </c>
+      <c r="E431" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="B432" t="str">
+        <v>SCW-C-XM-1509-01郑州T2检验检疫违禁品智能查验系统</v>
+      </c>
+      <c r="C432" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D432">
+        <v>6.5</v>
+      </c>
+      <c r="E432" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="B433" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C433" t="str">
+        <v>刘智</v>
+      </c>
+      <c r="D433">
+        <v>157</v>
+      </c>
+      <c r="E433" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="B434" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C434" t="str">
+        <v>周佳佳</v>
+      </c>
+      <c r="D434">
+        <v>48</v>
+      </c>
+      <c r="E434" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="B435" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C435" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D435">
+        <v>13</v>
+      </c>
+      <c r="E435" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="B436" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C436" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D436">
+        <v>16.8</v>
+      </c>
+      <c r="E436" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="B437" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C437" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D437">
+        <v>142.3</v>
+      </c>
+      <c r="E437" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="B438" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C438" t="str">
+        <v>温振兴</v>
+      </c>
+      <c r="D438">
+        <v>114</v>
+      </c>
+      <c r="E438" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="B439" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C439" t="str">
+        <v>王寰</v>
+      </c>
+      <c r="D439">
+        <v>14</v>
+      </c>
+      <c r="E439" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="B440" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C440" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D440">
+        <v>5.5</v>
+      </c>
+      <c r="E440" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="B441" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C441" t="str">
+        <v>王志伟</v>
+      </c>
+      <c r="D441">
+        <v>106</v>
+      </c>
+      <c r="E441" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="B442" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C442" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D442">
+        <v>208.20000000000002</v>
+      </c>
+      <c r="E442" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="B443" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C443" t="str">
+        <v>赵志远</v>
+      </c>
+      <c r="D443">
+        <v>72</v>
+      </c>
+      <c r="E443" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="B444" t="str">
+        <v>SCW-C-YF-1606-01行邮违禁品智能查验系统</v>
+      </c>
+      <c r="C444" t="str">
+        <v>陈明</v>
+      </c>
+      <c r="D444">
+        <v>20</v>
+      </c>
+      <c r="E444" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="B445" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C445" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D445">
+        <v>150.2</v>
+      </c>
+      <c r="E445" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="B446" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C446" t="str">
+        <v>周伟</v>
+      </c>
+      <c r="D446">
+        <v>1180.1999999999998</v>
+      </c>
+      <c r="E446" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="B447" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C447" t="str">
+        <v>周敏</v>
+      </c>
+      <c r="D447">
+        <v>1169</v>
+      </c>
+      <c r="E447" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="B448" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C448" t="str">
+        <v>张亮</v>
+      </c>
+      <c r="D448">
+        <v>38</v>
+      </c>
+      <c r="E448" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="B449" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C449" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D449">
+        <v>433.70000000000005</v>
+      </c>
+      <c r="E449" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="B450" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C450" t="str">
+        <v>朱永祥</v>
+      </c>
+      <c r="D450">
+        <v>2.2</v>
+      </c>
+      <c r="E450" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="B451" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C451" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D451">
+        <v>63.800000000000004</v>
+      </c>
+      <c r="E451" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="B452" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C452" t="str">
+        <v>李凯</v>
+      </c>
+      <c r="D452">
+        <v>1171.7999999999997</v>
+      </c>
+      <c r="E452" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="B453" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C453" t="str">
+        <v>罗慧</v>
+      </c>
+      <c r="D453">
+        <v>46</v>
+      </c>
+      <c r="E453" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="B454" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C454" t="str">
+        <v>陈明</v>
+      </c>
+      <c r="D454">
+        <v>8</v>
+      </c>
+      <c r="E454" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="B455" t="str">
+        <v>SCW-D-YF-1512-01跨境电商公共服务平台</v>
+      </c>
+      <c r="C455" t="str">
+        <v>霍源丽</v>
+      </c>
+      <c r="D455">
+        <v>123.2</v>
+      </c>
+      <c r="E455" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="B456" t="str">
+        <v>SCW-E-XM-1509-01郑州T2机场空气质量与微小气候在线监测平台</v>
+      </c>
+      <c r="C456" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D456">
+        <v>52</v>
+      </c>
+      <c r="E456" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="B457" t="str">
+        <v>SCW-E-XM-1509-01郑州T2机场空气质量与微小气候在线监测平台</v>
+      </c>
+      <c r="C457" t="str">
+        <v>王铎</v>
+      </c>
+      <c r="D457">
+        <v>84.4</v>
+      </c>
+      <c r="E457" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="B458" t="str">
+        <v>SCW-E-YF-1505-01空气质量与微小气候在线监测平台</v>
+      </c>
+      <c r="C458" t="str">
+        <v>宋武英</v>
+      </c>
+      <c r="D458">
+        <v>3.5</v>
+      </c>
+      <c r="E458" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="B459" t="str">
+        <v>SCW-E-YF-1505-01空气质量与微小气候在线监测平台</v>
+      </c>
+      <c r="C459" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D459">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="E459" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="B460" t="str">
+        <v>SCW-E-YF-1505-01空气质量与微小气候在线监测平台</v>
+      </c>
+      <c r="C460" t="str">
+        <v>李彦辉</v>
+      </c>
+      <c r="D460">
+        <v>18</v>
+      </c>
+      <c r="E460" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="B461" t="str">
+        <v>SCW-E-YF-1505-01空气质量与微小气候在线监测平台</v>
+      </c>
+      <c r="C461" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D461">
+        <v>16</v>
+      </c>
+      <c r="E461" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="B462" t="str">
+        <v>SCW-E-YF-1505-01空气质量与微小气候在线监测平台</v>
+      </c>
+      <c r="C462" t="str">
+        <v>李阳</v>
+      </c>
+      <c r="D462">
+        <v>24</v>
+      </c>
+      <c r="E462" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="B463" t="str">
+        <v>SCW-E-YF-1505-01空气质量与微小气候在线监测平台</v>
+      </c>
+      <c r="C463" t="str">
+        <v>王铎</v>
+      </c>
+      <c r="D463">
+        <v>170.7</v>
+      </c>
+      <c r="E463" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="B464" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C464" t="str">
+        <v>任俊敏</v>
+      </c>
+      <c r="D464">
+        <v>110.5</v>
+      </c>
+      <c r="E464" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="B465" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C465" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D465">
+        <v>137.9</v>
+      </c>
+      <c r="E465" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="B466" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C466" t="str">
+        <v>刘智</v>
+      </c>
+      <c r="D466">
+        <v>312</v>
+      </c>
+      <c r="E466" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="B467" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C467" t="str">
+        <v>周伟</v>
+      </c>
+      <c r="D467">
+        <v>156.5</v>
+      </c>
+      <c r="E467" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="B468" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C468" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D468">
+        <v>104.30000000000001</v>
+      </c>
+      <c r="E468" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C469" t="str">
+        <v>朱永祥</v>
+      </c>
+      <c r="D469">
+        <v>7.6</v>
+      </c>
+      <c r="E469" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="B470" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C470" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D470">
+        <v>16</v>
+      </c>
+      <c r="E470" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="B471" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C471" t="str">
+        <v>李凯</v>
+      </c>
+      <c r="D471">
+        <v>110</v>
+      </c>
+      <c r="E471" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="B472" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C472" t="str">
+        <v>杨荔</v>
+      </c>
+      <c r="D472">
+        <v>324.29999999999995</v>
+      </c>
+      <c r="E472" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="B473" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C473" t="str">
+        <v>温振兴</v>
+      </c>
+      <c r="D473">
+        <v>17</v>
+      </c>
+      <c r="E473" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="B474" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C474" t="str">
+        <v>王亚斌</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="B475" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C475" t="str">
+        <v>王岳龙</v>
+      </c>
+      <c r="D475">
+        <v>1.5</v>
+      </c>
+      <c r="E475" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="B476" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C476" t="str">
+        <v>王志伟</v>
+      </c>
+      <c r="D476">
+        <v>42</v>
+      </c>
+      <c r="E476" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="B477" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C477" t="str">
+        <v>王琛</v>
+      </c>
+      <c r="D477">
+        <v>25</v>
+      </c>
+      <c r="E477" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="B478" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C478" t="str">
+        <v>赵志远</v>
+      </c>
+      <c r="D478">
+        <v>1047.2000000000003</v>
+      </c>
+      <c r="E478" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C479" t="str">
+        <v>霍俊</v>
+      </c>
+      <c r="D479">
+        <v>111.5</v>
+      </c>
+      <c r="E479" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="B480" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C480" t="str">
+        <v>霍源丽</v>
+      </c>
+      <c r="D480">
+        <v>132.8</v>
+      </c>
+      <c r="E480" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="B481" t="str">
+        <v>SCW-F-XM-1602-01上海东航物流安检联网平台</v>
+      </c>
+      <c r="C481" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D481">
+        <v>16</v>
+      </c>
+      <c r="E481" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="B482" t="str">
+        <v>SCW-H-XM-1412-01济南检验检疫驻邮办专用电子快件查验台</v>
+      </c>
+      <c r="C482" t="str">
+        <v>李雪硕</v>
+      </c>
+      <c r="D482">
+        <v>11</v>
+      </c>
+      <c r="E482" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="B483" t="str">
+        <v>SCW-H-XM-1412-01济南检验检疫驻邮办专用电子快件查验台</v>
+      </c>
+      <c r="C483" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D483">
+        <v>85.5</v>
+      </c>
+      <c r="E483" t="str">
+        <v>项目</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="B484" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C484" t="str">
+        <v>刘庆</v>
+      </c>
+      <c r="D484">
+        <v>19.2</v>
+      </c>
+      <c r="E484" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="B485" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C485" t="str">
+        <v>孔德成</v>
+      </c>
+      <c r="D485">
+        <v>32</v>
+      </c>
+      <c r="E485" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="B486" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C486" t="str">
+        <v>崔荣杰</v>
+      </c>
+      <c r="D486">
+        <v>73.39999999999999</v>
+      </c>
+      <c r="E486" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="B487" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C487" t="str">
+        <v>曹琦敏</v>
+      </c>
+      <c r="D487">
+        <v>6.1</v>
+      </c>
+      <c r="E487" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="B488" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C488" t="str">
+        <v>李凤勇</v>
+      </c>
+      <c r="D488">
+        <v>9.6</v>
+      </c>
+      <c r="E488" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="B489" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C489" t="str">
+        <v>李彦辉</v>
+      </c>
+      <c r="D489">
+        <v>2.5</v>
+      </c>
+      <c r="E489" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="B490" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C490" t="str">
+        <v>李永亮</v>
+      </c>
+      <c r="D490">
+        <v>3</v>
+      </c>
+      <c r="E490" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="B491" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C491" t="str">
+        <v>温振兴</v>
+      </c>
+      <c r="D491">
+        <v>38</v>
+      </c>
+      <c r="E491" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="B492" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C492" t="str">
+        <v>王海明</v>
+      </c>
+      <c r="D492">
+        <v>27.5</v>
+      </c>
+      <c r="E492" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="B493" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C493" t="str">
+        <v>蔡红保</v>
+      </c>
+      <c r="D493">
+        <v>9.6</v>
+      </c>
+      <c r="E493" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="B494" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C494" t="str">
+        <v>郭建新</v>
+      </c>
+      <c r="D494">
+        <v>266.79999999999995</v>
+      </c>
+      <c r="E494" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="B495" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C495" t="str">
+        <v>霍源丽</v>
+      </c>
+      <c r="D495">
+        <v>60.8</v>
+      </c>
+      <c r="E495" t="str">
+        <v>产品</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="B496" t="str">
+        <v>SCW-N-YF-1606-01云洗消机器人</v>
+      </c>
+      <c r="C496" t="str">
+        <v>魏东</v>
+      </c>
+      <c r="D496">
+        <v>2</v>
+      </c>
+      <c r="E496" t="str">
         <v>产品</v>
       </c>
     </row>
